--- a/output7.xlsx
+++ b/output7.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.645087134</v>
+        <v>4.215576069</v>
       </c>
       <c r="B2" t="n">
-        <v>9.229639390172556</v>
+        <v>11.24243358255444</v>
       </c>
       <c r="C2" t="n">
-        <v>2.060534877827443</v>
+        <v>-2.811281444554441</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -471,41 +471,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.555199448</v>
+        <v>-1.81125059</v>
       </c>
       <c r="B3" t="n">
-        <v>18.65985669172812</v>
+        <v>6.269500940804441</v>
       </c>
       <c r="C3" t="n">
-        <v>11.490752179383</v>
+        <v>-7.784214086304441</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.643390698</v>
+        <v>-2.433562819</v>
       </c>
       <c r="B4" t="n">
-        <v>14.38448220912338</v>
+        <v>4.872662402262774</v>
       </c>
       <c r="C4" t="n">
-        <v>7.215377696778265</v>
+        <v>-9.181052624846108</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.211748128</v>
+        <v>8.322050066999999</v>
       </c>
       <c r="B5" t="n">
-        <v>13.1689734608338</v>
+        <v>13.32124722346573</v>
       </c>
       <c r="C5" t="n">
-        <v>5.999868948488689</v>
+        <v>-0.7324678036431518</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.704335632</v>
+        <v>5.517633684</v>
       </c>
       <c r="B6" t="n">
-        <v>12.31221311675323</v>
+        <v>12.69884656167784</v>
       </c>
       <c r="C6" t="n">
-        <v>5.143108604408119</v>
+        <v>-1.354868465431045</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.497155546</v>
+        <v>-4.780483084</v>
       </c>
       <c r="B7" t="n">
-        <v>11.16551096495649</v>
+        <v>4.334192166572686</v>
       </c>
       <c r="C7" t="n">
-        <v>3.996406452611381</v>
+        <v>-9.719522860536197</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.487866036</v>
+        <v>-1.213274129</v>
       </c>
       <c r="B8" t="n">
-        <v>10.63580504810628</v>
+        <v>5.517780890636431</v>
       </c>
       <c r="C8" t="n">
-        <v>3.466700535761167</v>
+        <v>-8.535934136472452</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.161277202</v>
+        <v>0.166691462</v>
       </c>
       <c r="B9" t="n">
-        <v>9.158586620241016</v>
+        <v>6.643258750361658</v>
       </c>
       <c r="C9" t="n">
-        <v>4.035525613106591</v>
+        <v>-6.980148740159184</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -569,41 +569,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.302967635</v>
+        <v>-5.059068412</v>
       </c>
       <c r="B10" t="n">
-        <v>7.877118988373646</v>
+        <v>2.734587586747671</v>
       </c>
       <c r="C10" t="n">
-        <v>2.871071838223881</v>
+        <v>-10.89649507595198</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.113633382</v>
+        <v>-0.471368781</v>
       </c>
       <c r="B11" t="n">
-        <v>6.395654444375803</v>
+        <v>5.455203456913663</v>
       </c>
       <c r="C11" t="n">
-        <v>1.445280657648444</v>
+        <v>-7.841772047381008</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.609142826</v>
+        <v>10.38604109</v>
       </c>
       <c r="B12" t="n">
-        <v>4.824965068156191</v>
+        <v>8.66353622947144</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1586871524401365</v>
+        <v>-4.464186153613536</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -611,69 +611,69 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.871506236</v>
+        <v>0.072586231</v>
       </c>
       <c r="B13" t="n">
-        <v>3.741154296864648</v>
+        <v>7.827824667531582</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2021075468134073</v>
+        <v>-4.499141917486229</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.324965513</v>
+        <v>-7.068638491</v>
       </c>
       <c r="B14" t="n">
-        <v>2.875517856826068</v>
+        <v>5.123628373836304</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05209162935064526</v>
+        <v>-5.491349523642169</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.755717423</v>
+        <v>-0.388203673</v>
       </c>
       <c r="B15" t="n">
-        <v>2.22885920066302</v>
+        <v>5.07833325610472</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2299011008185539</v>
+        <v>-5.531551863081605</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.88965753</v>
+        <v>-0.451988864</v>
       </c>
       <c r="B16" t="n">
-        <v>1.850563328000151</v>
+        <v>4.664392961972339</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6348166626604204</v>
+        <v>-5.211051000895202</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.327463204</v>
+        <v>-5.474759357</v>
       </c>
       <c r="B17" t="n">
-        <v>1.616023231642173</v>
+        <v>3.646362748775912</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7852471392766074</v>
+        <v>-6.333851963241949</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.211744808</v>
+        <v>1.427858791</v>
       </c>
       <c r="B18" t="n">
-        <v>1.533884771145277</v>
+        <v>4.378993159938103</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7864424845355718</v>
+        <v>-5.932301533038201</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.388244988</v>
+        <v>5.03186473</v>
       </c>
       <c r="B19" t="n">
-        <v>1.517471082320874</v>
+        <v>5.565258818039305</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.7641126826141533</v>
+        <v>-4.752537014023354</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -709,41 +709,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.709474678</v>
+        <v>-7.813220521</v>
       </c>
       <c r="B20" t="n">
-        <v>1.285829226650498</v>
+        <v>3.70048838968577</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.9732851824603015</v>
+        <v>-6.223674656780194</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.689715926</v>
+        <v>-8.010809331999999</v>
       </c>
       <c r="B21" t="n">
-        <v>1.073887563500427</v>
+        <v>2.25994097160386</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.103685634412611</v>
+        <v>-7.514302019455142</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.272915241</v>
+        <v>2.462926979</v>
       </c>
       <c r="B22" t="n">
-        <v>1.098610990632785</v>
+        <v>2.867322357539858</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.012211618717604</v>
+        <v>-6.066686402327002</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-1.168163039</v>
+        <v>0.747236165</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8439630907368818</v>
+        <v>3.106568102228424</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.245710697761077</v>
+        <v>-5.36018650090106</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -765,27 +765,27 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-2.223974619</v>
+        <v>-2.038700614</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4335608845146909</v>
+        <v>2.486534519465668</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.649354094824652</v>
+        <v>-5.107075412112972</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.046697414</v>
+        <v>-1.151236516</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5583244855996792</v>
+        <v>4.879065317131814</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.511037728225944</v>
+        <v>-7.435690805687636</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.688984653</v>
+        <v>-0.717598121</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7710039614948755</v>
+        <v>8.160577053643518</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.255813002299988</v>
+        <v>-10.49206615165234</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.242833409</v>
+        <v>-0.722657905</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7130250356930224</v>
+        <v>9.013401738676121</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.198006152003416</v>
+        <v>-11.16711889636153</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.020074995</v>
+        <v>-0.112113925</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4425847085399526</v>
+        <v>9.516737285488674</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.822285050294929</v>
+        <v>-11.28362127643068</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.417113119</v>
+        <v>0.129668067</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4963971388388428</v>
+        <v>9.780100107402037</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.6328416394153478</v>
+        <v>-11.14095469827522</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.204751191</v>
+        <v>-2.375191094</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4905115476458484</v>
+        <v>9.447995427338441</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.5175974474689111</v>
+        <v>-11.48780617139567</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.105941813</v>
+        <v>-1.955121105</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4671285741485512</v>
+        <v>9.364425309465295</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4463613294834338</v>
+        <v>-11.77878601710771</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.13285133</v>
+        <v>1.7032633</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5070180724158309</v>
+        <v>10.13850391518704</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.4372151821324866</v>
+        <v>-11.38753307283315</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.267163643</v>
+        <v>1.342305649</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4426276728575</v>
+        <v>10.62269466012834</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.493746621982266</v>
+        <v>-11.08437192220584</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -905,27 +905,27 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.655895355</v>
+        <v>-0.299438296</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2672847044538992</v>
+        <v>10.60879521570648</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5706979162404605</v>
+        <v>-11.09792974688031</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.151079432</v>
+        <v>-3.832283341</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5716447737302519</v>
+        <v>10.22477630083397</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.8748069886889893</v>
+        <v>-12.14972530660525</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.152457998</v>
+        <v>3.067603015</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9313600379892008</v>
+        <v>11.42142923524071</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.112857257570777</v>
+        <v>-11.73369305102603</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -947,27 +947,27 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.200526571</v>
+        <v>23.20903307</v>
       </c>
       <c r="B37" t="n">
-        <v>1.132417993198431</v>
+        <v>16.37228949951727</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.197367318509611</v>
+        <v>-7.335453367752541</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.12986958</v>
+        <v>11.82758976</v>
       </c>
       <c r="B38" t="n">
-        <v>1.13229969914503</v>
+        <v>17.97513794650266</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.236217108086886</v>
+        <v>-6.01387391220031</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.523100201</v>
+        <v>-7.082392909</v>
       </c>
       <c r="B39" t="n">
-        <v>1.101106789106178</v>
+        <v>15.47537561966255</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.393519945694796</v>
+        <v>-8.740407014914297</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.323301606</v>
+        <v>-1.383745995</v>
       </c>
       <c r="B40" t="n">
-        <v>1.130840526973961</v>
+        <v>14.53267740696067</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.494103466584241</v>
+        <v>-9.698516747053922</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.335858555</v>
+        <v>-0.279019937</v>
       </c>
       <c r="B41" t="n">
-        <v>1.118650260480046</v>
+        <v>13.92970226490032</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.543612235376772</v>
+        <v>-10.17412508011001</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.658100673</v>
+        <v>-5.873761794</v>
       </c>
       <c r="B42" t="n">
-        <v>1.031850178941964</v>
+        <v>12.47174481859901</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.635078984640323</v>
+        <v>-11.81711753792085</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.427812606</v>
+        <v>-3.313724751</v>
       </c>
       <c r="B43" t="n">
-        <v>1.016723317490944</v>
+        <v>10.59591819983717</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.670435699117308</v>
+        <v>-11.39783018435181</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.11392556</v>
+        <v>1.455557919</v>
       </c>
       <c r="B44" t="n">
-        <v>1.078968587796044</v>
+        <v>8.539378774998999</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.647502920179494</v>
+        <v>-8.59863465245513</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1059,27 +1059,27 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-2.077253263</v>
+        <v>-9.176852652999999</v>
       </c>
       <c r="B45" t="n">
-        <v>0.729823329198067</v>
+        <v>5.81137798105445</v>
       </c>
       <c r="C45" t="n">
-        <v>-2.01559115021029</v>
+        <v>-9.529722963979607</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-2.359062215</v>
+        <v>-10.34324576</v>
       </c>
       <c r="B46" t="n">
-        <v>0.390563041442017</v>
+        <v>3.914729337412935</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.362832085597216</v>
+        <v>-11.02685144759481</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.187137642</v>
+        <v>4.410481422</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6300616976193345</v>
+        <v>5.543588582145984</v>
       </c>
       <c r="C47" t="n">
-        <v>-2.133005522546418</v>
+        <v>-9.468982660226075</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1101,41 +1101,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.173027759</v>
+        <v>4.266116808</v>
       </c>
       <c r="B48" t="n">
-        <v>1.027333118217901</v>
+        <v>7.207184474989409</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.76045561507296</v>
+        <v>-8.6409835587221</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.458455194</v>
+        <v>-2.198272741</v>
       </c>
       <c r="B49" t="n">
-        <v>1.416467221054246</v>
+        <v>7.181795182126388</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.41956686088457</v>
+        <v>-9.208156760097738</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.847860971</v>
+        <v>4.132180103</v>
       </c>
       <c r="B50" t="n">
-        <v>1.61291348143831</v>
+        <v>8.158889897595749</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.276242743196468</v>
+        <v>-8.127070399595432</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.249606952</v>
+        <v>7.105019435</v>
       </c>
       <c r="B51" t="n">
-        <v>1.640780717435461</v>
+        <v>9.506304899553223</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.271600882056648</v>
+        <v>-6.63880105491356</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.32458367</v>
+        <v>3.530512415</v>
       </c>
       <c r="B52" t="n">
-        <v>1.542653209382802</v>
+        <v>10.42004482761927</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.377145134600154</v>
+        <v>-6.713827209489159</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.221326862</v>
+        <v>-0.598484502</v>
       </c>
       <c r="B53" t="n">
-        <v>1.447731798779084</v>
+        <v>10.23383550102183</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.226794087837316</v>
+        <v>-7.50826416491866</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.341648242</v>
+        <v>-5.011835211</v>
       </c>
       <c r="B54" t="n">
-        <v>1.525116450048193</v>
+        <v>9.090233451637705</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.8117033857271019</v>
+        <v>-8.91452910032903</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.479914408</v>
+        <v>3.353690926</v>
       </c>
       <c r="B55" t="n">
-        <v>1.651122291520386</v>
+        <v>9.700944672045969</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.4884234503359189</v>
+        <v>-8.218897183708494</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.622262842</v>
+        <v>8.516549452</v>
       </c>
       <c r="B56" t="n">
-        <v>1.84307290673947</v>
+        <v>11.11976707936238</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.2640067497230527</v>
+        <v>-6.527494761976623</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.812477076</v>
+        <v>5.882590421</v>
       </c>
       <c r="B57" t="n">
-        <v>2.010859517011795</v>
+        <v>11.76181333452545</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.02261423007778218</v>
+        <v>-5.734953944789378</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.291589646</v>
+        <v>-0.70067026</v>
       </c>
       <c r="B58" t="n">
-        <v>2.106056213813027</v>
+        <v>11.15126217964015</v>
       </c>
       <c r="C58" t="n">
-        <v>0.001176230281229707</v>
+        <v>-6.610047218615862</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1255,27 +1255,27 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.347885011</v>
+        <v>-9.632164353</v>
       </c>
       <c r="B59" t="n">
-        <v>2.118612189218126</v>
+        <v>8.997435954920357</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.293672905500548</v>
+        <v>-9.217341127918703</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.63639286</v>
+        <v>-11.34030161</v>
       </c>
       <c r="B60" t="n">
-        <v>2.3193398883378</v>
+        <v>6.658990745825129</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.2048307626581227</v>
+        <v>-11.37104413347019</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.330281477</v>
+        <v>-8.966992490000001</v>
       </c>
       <c r="B61" t="n">
-        <v>3.126203557625354</v>
+        <v>6.626050572964434</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.5024828859171886</v>
+        <v>-13.98249433159694</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.104752101</v>
+        <v>3.335233896</v>
       </c>
       <c r="B62" t="n">
-        <v>3.752027802766016</v>
+        <v>10.07393096451973</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.211150526565191</v>
+        <v>-14.62498897363281</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.010256669</v>
+        <v>3.4573144</v>
       </c>
       <c r="B63" t="n">
-        <v>3.863193224327817</v>
+        <v>12.43799557175408</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.826389230160794</v>
+        <v>-14.69591396993976</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.994386916</v>
+        <v>-4.772705131</v>
       </c>
       <c r="B64" t="n">
-        <v>3.558367254747777</v>
+        <v>11.83961603006484</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.326679457538693</v>
+        <v>-15.55503394462248</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.539257453</v>
+        <v>-7.082214889</v>
       </c>
       <c r="B65" t="n">
-        <v>3.199677690363765</v>
+        <v>10.80407872569277</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.830030974908455</v>
+        <v>-16.6093003247299</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.574750597</v>
+        <v>-2.804571199</v>
       </c>
       <c r="B66" t="n">
-        <v>3.077151757623628</v>
+        <v>10.5989620508174</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.011334776632992</v>
+        <v>-16.36496778995416</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.104489238</v>
+        <v>20.88400924</v>
       </c>
       <c r="B67" t="n">
-        <v>4.104189404219765</v>
+        <v>15.12922460682541</v>
       </c>
       <c r="C67" t="n">
-        <v>-2.009739309255323</v>
+        <v>-11.38842168292169</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.933206074</v>
+        <v>17.92678078</v>
       </c>
       <c r="B68" t="n">
-        <v>4.693272141450876</v>
+        <v>18.25771751447179</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.444429264871788</v>
+        <v>-8.094360799219604</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1395,27 +1395,27 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-2.635458846</v>
+        <v>-6.024115301</v>
       </c>
       <c r="B69" t="n">
-        <v>3.853065378437209</v>
+        <v>16.03059823596902</v>
       </c>
       <c r="C69" t="n">
-        <v>-2.308175053677326</v>
+        <v>-10.3095601263322</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-2.540302247</v>
+        <v>-2.133303675</v>
       </c>
       <c r="B70" t="n">
-        <v>3.191262197193661</v>
+        <v>14.71537129184561</v>
       </c>
       <c r="C70" t="n">
-        <v>-2.971471108742859</v>
+        <v>-10.99186268500414</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1.764822376</v>
+        <v>3.123296245</v>
       </c>
       <c r="B71" t="n">
-        <v>2.809181039787432</v>
+        <v>14.38651351101189</v>
       </c>
       <c r="C71" t="n">
-        <v>-3.339277242821086</v>
+        <v>-10.15838804450378</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-1.838200196</v>
+        <v>-0.950128265</v>
       </c>
       <c r="B72" t="n">
-        <v>2.475181434570341</v>
+        <v>13.253909267975</v>
       </c>
       <c r="C72" t="n">
-        <v>-3.634538558233401</v>
+        <v>-10.25146036211702</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1.590649607</v>
+        <v>-1.249210819</v>
       </c>
       <c r="B73" t="n">
-        <v>2.262348047600919</v>
+        <v>12.45999782886415</v>
       </c>
       <c r="C73" t="n">
-        <v>-3.826093631918442</v>
+        <v>-10.55772314763964</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.053228194</v>
+        <v>1.860789686</v>
       </c>
       <c r="B74" t="n">
-        <v>2.205867867965682</v>
+        <v>12.60326831778245</v>
       </c>
       <c r="C74" t="n">
-        <v>-3.87815562216436</v>
+        <v>-10.33713266774761</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-1.320822885</v>
+        <v>-0.818988188</v>
       </c>
       <c r="B75" t="n">
-        <v>2.10568998752916</v>
+        <v>12.15458431019956</v>
       </c>
       <c r="C75" t="n">
-        <v>-3.971849357955024</v>
+        <v>-10.66927111799902</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-1.653529913</v>
+        <v>-3.509952817</v>
       </c>
       <c r="B76" t="n">
-        <v>1.973763626650585</v>
+        <v>11.18871216639525</v>
       </c>
       <c r="C76" t="n">
-        <v>-4.128103103729917</v>
+        <v>-11.40444283115492</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.595263192</v>
+        <v>-1.149148022</v>
       </c>
       <c r="B77" t="n">
-        <v>1.812049195490912</v>
+        <v>10.77268870836757</v>
       </c>
       <c r="C77" t="n">
-        <v>-4.173626062893751</v>
+        <v>-11.40493246694198</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.922186311</v>
+        <v>0.173612947</v>
       </c>
       <c r="B78" t="n">
-        <v>1.856602519870683</v>
+        <v>10.81738062715036</v>
       </c>
       <c r="C78" t="n">
-        <v>-4.114738534623342</v>
+        <v>-11.25373044844984</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.386901082</v>
+        <v>0.422535476</v>
       </c>
       <c r="B79" t="n">
-        <v>1.853298801812443</v>
+        <v>9.667347023732461</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.505047164074035</v>
+        <v>-9.84741268329681</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.726043871</v>
+        <v>1.358621117</v>
       </c>
       <c r="B80" t="n">
-        <v>1.301019486787694</v>
+        <v>7.524124056881</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.912835724115044</v>
+        <v>-7.124728124934729</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-2.202940372</v>
+        <v>1.031291024</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5352309351091158</v>
+        <v>5.591419546757231</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.705860083644365</v>
+        <v>-4.859386385723021</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1577,27 +1577,27 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-2.461590111</v>
+        <v>-8.354216735</v>
       </c>
       <c r="B82" t="n">
-        <v>0.07112981252341966</v>
+        <v>3.948483270839271</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.792269183532958</v>
+        <v>-6.704543485315324</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-2.180918394</v>
+        <v>-6.969194725</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.2451177064867802</v>
+        <v>2.776863438074819</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.804161151631393</v>
+        <v>-7.769389524945216</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1605,27 +1605,27 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-1.261050878</v>
+        <v>7.180899604</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.2431790327177743</v>
+        <v>5.077356671475701</v>
       </c>
       <c r="C84" t="n">
-        <v>-2.700664404022969</v>
+        <v>-6.199017664355179</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.677168509</v>
+        <v>1.383115457</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.1354078991279806</v>
+        <v>5.645957210142997</v>
       </c>
       <c r="C85" t="n">
-        <v>-2.49053425156396</v>
+        <v>-5.990039816019241</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1633,27 +1633,27 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.328540493</v>
+        <v>-8.312493882</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.004663977273635433</v>
+        <v>3.962930500360959</v>
       </c>
       <c r="C86" t="n">
-        <v>-2.227505938200133</v>
+        <v>-7.563194156713954</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1.219247071</v>
+        <v>-2.64147116</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.06506079696575706</v>
+        <v>3.721552041032617</v>
       </c>
       <c r="C87" t="n">
-        <v>-2.208373964004383</v>
+        <v>-7.65835143167374</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-1.675758412</v>
+        <v>-0.574167368</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.1751725226236214</v>
+        <v>4.046124923056289</v>
       </c>
       <c r="C88" t="n">
-        <v>-2.313878651751423</v>
+        <v>-7.425231380702741</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-1.541764232</v>
+        <v>-3.407921322</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.235118046724325</v>
+        <v>3.7367011877096</v>
       </c>
       <c r="C89" t="n">
-        <v>-2.372828585928151</v>
+        <v>-7.80315488466425</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-1.152980338</v>
+        <v>1.000871593</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.1915094162074353</v>
+        <v>4.753478785392289</v>
       </c>
       <c r="C90" t="n">
-        <v>-2.356040024971318</v>
+        <v>-7.606293102877958</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1703,27 +1703,27 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.719053127</v>
+        <v>6.690502348</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.06581731561974213</v>
+        <v>6.637559405948846</v>
       </c>
       <c r="C91" t="n">
-        <v>-2.259843487702307</v>
+        <v>-6.243609914577824</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.858732083</v>
+        <v>-3.957785064</v>
       </c>
       <c r="B92" t="n">
-        <v>0.007297682541637318</v>
+        <v>5.993856390146042</v>
       </c>
       <c r="C92" t="n">
-        <v>-2.211319158214664</v>
+        <v>-7.261810825171513</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.865105058</v>
+        <v>-6.250776995</v>
       </c>
       <c r="B93" t="n">
-        <v>0.04540229844933252</v>
+        <v>5.149471975298569</v>
       </c>
       <c r="C93" t="n">
-        <v>-2.154661502072697</v>
+        <v>-8.664146324046841</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.662825196</v>
+        <v>4.534084874</v>
       </c>
       <c r="B94" t="n">
-        <v>0.02708216859846324</v>
+        <v>6.572322881121481</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.979619609744925</v>
+        <v>-7.570428408075669</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-1.145441397</v>
+        <v>2.88703287</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.1282273360297054</v>
+        <v>6.551462743865764</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.891979175740047</v>
+        <v>-6.195134016376627</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-1.894850378</v>
+        <v>-3.547197489</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.3051767605627315</v>
+        <v>5.806390372853673</v>
       </c>
       <c r="C96" t="n">
-        <v>-2.068928600273074</v>
+        <v>-6.940206387388717</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -1787,41 +1787,41 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-2.347088288</v>
+        <v>-3.005004524</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.5371838821945333</v>
+        <v>5.318771069264673</v>
       </c>
       <c r="C97" t="n">
-        <v>-2.300935721904875</v>
+        <v>-7.427825690977717</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-2.600651245</v>
+        <v>-0.402143456</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.7735021708786137</v>
+        <v>5.449247840287889</v>
       </c>
       <c r="C98" t="n">
-        <v>-2.537254010588956</v>
+        <v>-7.297348919954501</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-2.49470714</v>
+        <v>5.929545606</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.9413679807852861</v>
+        <v>6.819967069890832</v>
       </c>
       <c r="C99" t="n">
-        <v>-2.705119820495628</v>
+        <v>-5.926629690351558</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -1829,30 +1829,30 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-3.126594185</v>
+        <v>3.976410961</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.202038037723569</v>
+        <v>7.52591552431666</v>
       </c>
       <c r="C100" t="n">
-        <v>-2.965789877433911</v>
+        <v>-5.22068123592573</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-4.108951027</v>
+        <v>-1.912014946</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.607045451690322</v>
+        <v>6.912989106152711</v>
       </c>
       <c r="C101" t="n">
-        <v>-3.370797291400665</v>
+        <v>-5.833607654089679</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output7.xlsx
+++ b/output7.xlsx
@@ -474,13 +474,13 @@
         <v>-1.81125059</v>
       </c>
       <c r="B3" t="n">
-        <v>6.269500940804441</v>
+        <v>16.44244802302667</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.784214086304441</v>
+        <v>2.388732995917785</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>-2.433562819</v>
       </c>
       <c r="B4" t="n">
-        <v>4.872662402262774</v>
+        <v>11.87729750618506</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.181052624846108</v>
+        <v>-2.176417520923823</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +502,10 @@
         <v>8.322050066999999</v>
       </c>
       <c r="B5" t="n">
-        <v>13.32124722346573</v>
+        <v>12.33881493357011</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7324678036431518</v>
+        <v>-1.714900093538776</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -516,10 +516,10 @@
         <v>5.517633684</v>
       </c>
       <c r="B6" t="n">
-        <v>12.69884656167784</v>
+        <v>12.45019184141736</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.354868465431045</v>
+        <v>-1.603523185691517</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>-4.780483084</v>
       </c>
       <c r="B7" t="n">
-        <v>4.334192166572686</v>
+        <v>10.25295486823481</v>
       </c>
       <c r="C7" t="n">
-        <v>-9.719522860536197</v>
+        <v>-3.800760158874077</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         <v>-1.213274129</v>
       </c>
       <c r="B8" t="n">
-        <v>5.517780890636431</v>
+        <v>9.026377368110866</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.535934136472452</v>
+        <v>-5.027337658998016</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>0.166691462</v>
       </c>
       <c r="B9" t="n">
-        <v>6.643258750361658</v>
+        <v>8.27254426495314</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.980148740159184</v>
+        <v>-5.350863225567702</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -572,10 +572,10 @@
         <v>-5.059068412</v>
       </c>
       <c r="B10" t="n">
-        <v>2.734587586747671</v>
+        <v>6.988630462546747</v>
       </c>
       <c r="C10" t="n">
-        <v>-10.89649507595198</v>
+        <v>-6.6424522001529</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>-0.471368781</v>
       </c>
       <c r="B11" t="n">
-        <v>5.455203456913663</v>
+        <v>6.506218428713256</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.841772047381008</v>
+        <v>-6.790757075581416</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
